--- a/data/241022_raw.xlsx
+++ b/data/241022_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portland-my.sharepoint.com/personal/mwzaw2-c_my_cityu_edu_hk/Documents/CEVR/projects/biomarkers/elisa_bdnf_cortisol/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{6D33863E-93C8-4B14-8F56-E808A7015369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2EAE110-E109-1E40-B503-9D78A1DDB846}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{6D33863E-93C8-4B14-8F56-E808A7015369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{039DCDEA-796E-1A4B-8391-696F40323C56}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="2400" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="80" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absorbance 1_01" sheetId="1" r:id="rId1"/>
@@ -2428,16 +2428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2767,8 +2767,8 @@
   <sheetPr codeName="Absorbance 1_01"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3578,11 +3578,11 @@
         <v>5.3650000000000003E-2</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" ref="C58:G65" si="0">H45-$B$56</f>
+        <f>H45-$B$56</f>
         <v>-4.3499999999999997E-3</v>
       </c>
       <c r="D58" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C58:G65" si="0">I45-$B$56</f>
         <v>2.7603499999999999</v>
       </c>
       <c r="E58" s="12">

--- a/data/241022_raw.xlsx
+++ b/data/241022_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portland-my.sharepoint.com/personal/mwzaw2-c_my_cityu_edu_hk/Documents/CEVR/projects/biomarkers/elisa_bdnf_cortisol/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{6D33863E-93C8-4B14-8F56-E808A7015369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{039DCDEA-796E-1A4B-8391-696F40323C56}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{6D33863E-93C8-4B14-8F56-E808A7015369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6AA43C-198C-3D4C-AD39-F3A4E285C056}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="80" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1680" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absorbance 1_01" sheetId="1" r:id="rId1"/>
@@ -2767,8 +2767,8 @@
   <sheetPr codeName="Absorbance 1_01"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
+    <sheetView tabSelected="1" topLeftCell="E66" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
